--- a/schema/ERDOutline.xlsx
+++ b/schema/ERDOutline.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/46bded36de9b30a4/Desktop/Project Three/project-sports-analytics-NHL-2.0/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/46bded36de9b30a4/Desktop/Project Three/project-sports-analytics-NHL-2.0/schema/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F01A116-5A37-438D-81E0-C501374862AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="8_{3F01A116-5A37-438D-81E0-C501374862AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE9AD7FB-5779-43C7-8728-672E1B478141}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{15C26407-BB0F-4372-A1AF-DB7C42A84FE1}"/>
+    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{15C26407-BB0F-4372-A1AF-DB7C42A84FE1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="103">
   <si>
     <t>team</t>
   </si>
@@ -134,15 +134,6 @@
     <t>division_id -&gt; FK</t>
   </si>
   <si>
-    <t>player_stats_team_id (INT)</t>
-  </si>
-  <si>
-    <t>player_stats_season_id (INT)</t>
-  </si>
-  <si>
-    <t>team_franchise_id(INT)</t>
-  </si>
-  <si>
     <t>team_stats_ot (INT)</t>
   </si>
   <si>
@@ -306,6 +297,54 @@
   </si>
   <si>
     <t>player_stats_powerPlayTimeOnIcePerGame (INT)</t>
+  </si>
+  <si>
+    <t>team_franchise_id (INT)</t>
+  </si>
+  <si>
+    <t>player_firstName</t>
+  </si>
+  <si>
+    <t>player_lastName</t>
+  </si>
+  <si>
+    <t>player_primaryNumber</t>
+  </si>
+  <si>
+    <t>player_birthDate</t>
+  </si>
+  <si>
+    <t>player_birthCity</t>
+  </si>
+  <si>
+    <t>player_birthStateProvince</t>
+  </si>
+  <si>
+    <t>player_birthCountry</t>
+  </si>
+  <si>
+    <t>player_nationality</t>
+  </si>
+  <si>
+    <t>player_height</t>
+  </si>
+  <si>
+    <t>player_weight</t>
+  </si>
+  <si>
+    <t>player_active</t>
+  </si>
+  <si>
+    <t>player_rookie</t>
+  </si>
+  <si>
+    <t>player_shootsCatches</t>
+  </si>
+  <si>
+    <t>player_rosterStatus</t>
+  </si>
+  <si>
+    <t>player_primaryPositionCode</t>
   </si>
 </sst>
 </file>
@@ -370,16 +409,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -702,8 +738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65B6B509-862D-4B83-8C06-3B7EF8B39410}">
   <dimension ref="C3:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView tabSelected="1" topLeftCell="F7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -715,7 +751,7 @@
     <col min="7" max="7" width="10.140625" customWidth="1"/>
     <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="39.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26" customWidth="1"/>
     <col min="13" max="13" width="11.140625" customWidth="1"/>
     <col min="14" max="14" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="45.140625" bestFit="1" customWidth="1"/>
@@ -725,20 +761,15 @@
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="4"/>
       <c r="F3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
       <c r="I3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="4"/>
       <c r="L3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="4"/>
       <c r="O3" s="3" t="s">
         <v>2</v>
       </c>
@@ -747,19 +778,19 @@
       <c r="C4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F4" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="5" t="s">
         <v>14</v>
       </c>
       <c r="I4" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="5" t="s">
         <v>14</v>
       </c>
       <c r="L4" t="s">
@@ -771,7 +802,7 @@
       <c r="O4" t="s">
         <v>13</v>
       </c>
-      <c r="P4" s="6" t="s">
+      <c r="P4" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -795,7 +826,7 @@
         <v>17</v>
       </c>
       <c r="O5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="3:16" x14ac:dyDescent="0.25">
@@ -814,11 +845,14 @@
       <c r="I6" t="s">
         <v>3</v>
       </c>
+      <c r="L6" t="s">
+        <v>88</v>
+      </c>
       <c r="N6" t="s">
         <v>15</v>
       </c>
       <c r="O6" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="3:16" x14ac:dyDescent="0.25">
@@ -835,13 +869,16 @@
         <v>27</v>
       </c>
       <c r="I7" t="s">
-        <v>37</v>
+        <v>34</v>
+      </c>
+      <c r="L7" t="s">
+        <v>89</v>
       </c>
       <c r="N7" t="s">
         <v>16</v>
       </c>
       <c r="O7" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="3:16" x14ac:dyDescent="0.25">
@@ -852,21 +889,27 @@
         <v>30</v>
       </c>
       <c r="I8" t="s">
-        <v>36</v>
-      </c>
-      <c r="O8" s="5" t="s">
-        <v>63</v>
+        <v>33</v>
+      </c>
+      <c r="L8" t="s">
+        <v>90</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="3:16" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="I9" t="s">
-        <v>38</v>
-      </c>
-      <c r="O9" s="5" t="s">
-        <v>64</v>
+        <v>35</v>
+      </c>
+      <c r="L9" t="s">
+        <v>91</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="3:16" x14ac:dyDescent="0.25">
@@ -874,42 +917,57 @@
         <v>21</v>
       </c>
       <c r="I10" t="s">
-        <v>35</v>
-      </c>
-      <c r="O10" s="5" t="s">
-        <v>65</v>
+        <v>32</v>
+      </c>
+      <c r="L10" t="s">
+        <v>92</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="3:16" x14ac:dyDescent="0.25">
       <c r="I11" t="s">
-        <v>39</v>
-      </c>
-      <c r="O11" s="5" t="s">
-        <v>66</v>
+        <v>36</v>
+      </c>
+      <c r="L11" t="s">
+        <v>93</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="3:16" x14ac:dyDescent="0.25">
       <c r="I12" t="s">
-        <v>40</v>
-      </c>
-      <c r="O12" s="5" t="s">
-        <v>67</v>
+        <v>37</v>
+      </c>
+      <c r="L12" t="s">
+        <v>94</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="3:16" x14ac:dyDescent="0.25">
       <c r="I13" t="s">
-        <v>41</v>
-      </c>
-      <c r="O13" s="5" t="s">
-        <v>68</v>
+        <v>38</v>
+      </c>
+      <c r="L13" t="s">
+        <v>95</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="3:16" x14ac:dyDescent="0.25">
       <c r="I14" t="s">
-        <v>42</v>
-      </c>
-      <c r="O14" s="5" t="s">
-        <v>69</v>
+        <v>39</v>
+      </c>
+      <c r="L14" t="s">
+        <v>96</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="3:16" x14ac:dyDescent="0.25">
@@ -920,30 +978,36 @@
         <v>24</v>
       </c>
       <c r="I15" t="s">
-        <v>43</v>
-      </c>
-      <c r="O15" s="5" t="s">
-        <v>70</v>
+        <v>40</v>
+      </c>
+      <c r="L15" t="s">
+        <v>97</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F16" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="5" t="s">
         <v>14</v>
       </c>
       <c r="I16" t="s">
-        <v>44</v>
-      </c>
-      <c r="O16" s="5" t="s">
-        <v>71</v>
+        <v>41</v>
+      </c>
+      <c r="L16" t="s">
+        <v>98</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="3:15" x14ac:dyDescent="0.25">
@@ -954,146 +1018,158 @@
         <v>29</v>
       </c>
       <c r="I17" t="s">
-        <v>45</v>
-      </c>
-      <c r="O17" s="5" t="s">
-        <v>72</v>
+        <v>42</v>
+      </c>
+      <c r="L17" t="s">
+        <v>99</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="3:15" x14ac:dyDescent="0.25">
       <c r="I18" t="s">
-        <v>46</v>
-      </c>
-      <c r="O18" s="5" t="s">
-        <v>73</v>
+        <v>43</v>
+      </c>
+      <c r="L18" t="s">
+        <v>100</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="3:15" x14ac:dyDescent="0.25">
       <c r="I19" t="s">
-        <v>47</v>
-      </c>
-      <c r="O19" s="5" t="s">
-        <v>74</v>
+        <v>44</v>
+      </c>
+      <c r="L19" t="s">
+        <v>101</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="3:15" x14ac:dyDescent="0.25">
       <c r="I20" t="s">
-        <v>48</v>
-      </c>
-      <c r="O20" s="5" t="s">
-        <v>75</v>
+        <v>45</v>
+      </c>
+      <c r="L20" t="s">
+        <v>102</v>
+      </c>
+      <c r="O20" s="4" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="3:15" x14ac:dyDescent="0.25">
       <c r="I21" t="s">
-        <v>49</v>
-      </c>
-      <c r="O21" s="5" t="s">
-        <v>76</v>
+        <v>46</v>
+      </c>
+      <c r="O21" s="4" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="3:15" x14ac:dyDescent="0.25">
       <c r="I22" t="s">
-        <v>50</v>
-      </c>
-      <c r="O22" s="5" t="s">
-        <v>77</v>
+        <v>47</v>
+      </c>
+      <c r="O22" s="4" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="3:15" x14ac:dyDescent="0.25">
       <c r="I23" t="s">
-        <v>51</v>
-      </c>
-      <c r="O23" s="5" t="s">
-        <v>78</v>
+        <v>48</v>
+      </c>
+      <c r="O23" s="4" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="3:15" x14ac:dyDescent="0.25">
       <c r="I24" t="s">
-        <v>52</v>
-      </c>
-      <c r="O24" s="5" t="s">
-        <v>79</v>
+        <v>49</v>
+      </c>
+      <c r="O24" s="4" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="3:15" x14ac:dyDescent="0.25">
       <c r="I25" t="s">
-        <v>53</v>
-      </c>
-      <c r="O25" s="5" t="s">
-        <v>80</v>
+        <v>50</v>
+      </c>
+      <c r="O25" s="4" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="3:15" x14ac:dyDescent="0.25">
       <c r="I26" t="s">
-        <v>54</v>
-      </c>
-      <c r="O26" s="5" t="s">
-        <v>81</v>
+        <v>51</v>
+      </c>
+      <c r="O26" s="4" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="3:15" x14ac:dyDescent="0.25">
       <c r="I27" t="s">
-        <v>55</v>
-      </c>
-      <c r="O27" s="5" t="s">
-        <v>82</v>
+        <v>52</v>
+      </c>
+      <c r="O27" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="3:15" x14ac:dyDescent="0.25">
       <c r="I28" t="s">
-        <v>56</v>
-      </c>
-      <c r="O28" s="5" t="s">
-        <v>83</v>
+        <v>53</v>
+      </c>
+      <c r="O28" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="3:15" x14ac:dyDescent="0.25">
       <c r="I29" t="s">
-        <v>57</v>
-      </c>
-      <c r="O29" s="5" t="s">
-        <v>84</v>
+        <v>54</v>
+      </c>
+      <c r="O29" s="4" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="3:15" x14ac:dyDescent="0.25">
       <c r="I30" t="s">
-        <v>58</v>
-      </c>
-      <c r="O30" s="5" t="s">
-        <v>85</v>
+        <v>55</v>
+      </c>
+      <c r="O30" s="4" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="3:15" x14ac:dyDescent="0.25">
       <c r="I31" t="s">
-        <v>59</v>
-      </c>
-      <c r="O31" s="5" t="s">
-        <v>86</v>
+        <v>56</v>
+      </c>
+      <c r="O31" s="4" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="3:15" x14ac:dyDescent="0.25">
       <c r="I32" t="s">
-        <v>60</v>
-      </c>
-      <c r="O32" s="5" t="s">
-        <v>87</v>
+        <v>57</v>
+      </c>
+      <c r="O32" s="4" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I33" t="s">
-        <v>61</v>
-      </c>
-      <c r="O33" s="5" t="s">
-        <v>88</v>
+        <v>58</v>
+      </c>
+      <c r="O33" s="4" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I34" t="s">
-        <v>62</v>
-      </c>
-      <c r="O34" s="5" t="s">
-        <v>89</v>
+        <v>59</v>
+      </c>
+      <c r="O34" s="4" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
